--- a/dataanalysis/data/predictions/1600/08131529_1534.xlsx
+++ b/dataanalysis/data/predictions/1600/08131529_1534.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="202">
   <si>
     <t>序号</t>
   </si>
@@ -118,6 +118,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-08-13</t>
   </si>
   <si>
@@ -617,12 +620,6 @@
   </si>
   <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -980,13 +977,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH110"/>
+  <dimension ref="A1:AI110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1089,19 +1086,22 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>300066</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>-1.14</v>
@@ -1119,7 +1119,7 @@
         <v>73933.85000000001</v>
       </c>
       <c r="J2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K2">
         <v>5</v>
@@ -1160,8 +1160,23 @@
       <c r="W2">
         <v>-0.3</v>
       </c>
+      <c r="X2">
+        <v>-4.48</v>
+      </c>
+      <c r="Y2">
+        <v>6.88</v>
+      </c>
+      <c r="Z2">
+        <v>-0.58</v>
+      </c>
       <c r="AC2" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -1169,22 +1184,25 @@
       <c r="AG2">
         <v>0.08625896275043488</v>
       </c>
-      <c r="AH2" t="s">
-        <v>201</v>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>300145</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>14.5</v>
@@ -1202,7 +1220,7 @@
         <v>223407.1</v>
       </c>
       <c r="J3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -1243,8 +1261,23 @@
       <c r="W3">
         <v>1.22</v>
       </c>
+      <c r="X3">
+        <v>-5.1</v>
+      </c>
+      <c r="Y3">
+        <v>5.6</v>
+      </c>
+      <c r="Z3">
+        <v>5.86</v>
+      </c>
       <c r="AC3" t="s">
-        <v>200</v>
+        <v>201</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -1252,22 +1285,25 @@
       <c r="AG3">
         <v>6.06353759765625</v>
       </c>
-      <c r="AH3" t="s">
-        <v>201</v>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>300158</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>2.68</v>
@@ -1285,7 +1321,7 @@
         <v>149813.68</v>
       </c>
       <c r="J4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K4">
         <v>16</v>
@@ -1326,8 +1362,23 @@
       <c r="W4">
         <v>1.42</v>
       </c>
+      <c r="X4">
+        <v>-3.86</v>
+      </c>
+      <c r="Y4">
+        <v>9.1</v>
+      </c>
+      <c r="Z4">
+        <v>3.41</v>
+      </c>
       <c r="AC4" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1335,22 +1386,25 @@
       <c r="AG4">
         <v>5.218938827514648</v>
       </c>
-      <c r="AH4" t="s">
-        <v>201</v>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>300196</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>-3.26</v>
@@ -1368,7 +1422,7 @@
         <v>38830.2</v>
       </c>
       <c r="J5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -1409,8 +1463,23 @@
       <c r="W5">
         <v>-0.6899999999999999</v>
       </c>
+      <c r="X5">
+        <v>-0.32</v>
+      </c>
+      <c r="Y5">
+        <v>16.15</v>
+      </c>
+      <c r="Z5">
+        <v>4.67</v>
+      </c>
       <c r="AC5" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1418,22 +1487,25 @@
       <c r="AG5">
         <v>-0.4018191695213318</v>
       </c>
-      <c r="AH5" t="s">
-        <v>201</v>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>300199</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>2.47</v>
@@ -1451,7 +1523,7 @@
         <v>301224.04</v>
       </c>
       <c r="J6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K6">
         <v>12</v>
@@ -1492,8 +1564,23 @@
       <c r="W6">
         <v>-0.06</v>
       </c>
+      <c r="X6">
+        <v>-0.32</v>
+      </c>
+      <c r="Y6">
+        <v>25.83</v>
+      </c>
+      <c r="Z6">
+        <v>3.82</v>
+      </c>
       <c r="AC6" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>1</v>
@@ -1501,22 +1588,25 @@
       <c r="AG6">
         <v>7.156076908111572</v>
       </c>
-      <c r="AH6" t="s">
-        <v>201</v>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>300218</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>-2.39</v>
@@ -1534,7 +1624,7 @@
         <v>46434.83</v>
       </c>
       <c r="J7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K7">
         <v>4</v>
@@ -1575,8 +1665,23 @@
       <c r="W7">
         <v>-1.06</v>
       </c>
+      <c r="X7">
+        <v>-3.54</v>
+      </c>
+      <c r="Y7">
+        <v>23.01</v>
+      </c>
+      <c r="Z7">
+        <v>0.7</v>
+      </c>
       <c r="AC7" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1584,22 +1689,25 @@
       <c r="AG7">
         <v>-0.1232551261782646</v>
       </c>
-      <c r="AH7" t="s">
-        <v>201</v>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>300289</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>4.91</v>
@@ -1617,7 +1725,7 @@
         <v>138508.24</v>
       </c>
       <c r="J8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K8">
         <v>5</v>
@@ -1658,8 +1766,23 @@
       <c r="W8">
         <v>0.93</v>
       </c>
+      <c r="X8">
+        <v>-11.21</v>
+      </c>
+      <c r="Y8">
+        <v>10.99</v>
+      </c>
+      <c r="Z8">
+        <v>-3</v>
+      </c>
       <c r="AC8" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1667,22 +1790,25 @@
       <c r="AG8">
         <v>-1.770374298095703</v>
       </c>
-      <c r="AH8" t="s">
-        <v>201</v>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>300304</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>4.11</v>
@@ -1700,7 +1826,7 @@
         <v>104986.23</v>
       </c>
       <c r="J9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1741,8 +1867,23 @@
       <c r="W9">
         <v>0.06</v>
       </c>
+      <c r="X9">
+        <v>-5.44</v>
+      </c>
+      <c r="Y9">
+        <v>13.46</v>
+      </c>
+      <c r="Z9">
+        <v>0.22</v>
+      </c>
       <c r="AC9" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1750,22 +1891,25 @@
       <c r="AG9">
         <v>5.005773067474365</v>
       </c>
-      <c r="AH9" t="s">
-        <v>201</v>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>300314</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>-2.62</v>
@@ -1783,7 +1927,7 @@
         <v>38408.36</v>
       </c>
       <c r="J10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1824,8 +1968,23 @@
       <c r="W10">
         <v>-1.14</v>
       </c>
+      <c r="X10">
+        <v>-3.67</v>
+      </c>
+      <c r="Y10">
+        <v>15.48</v>
+      </c>
+      <c r="Z10">
+        <v>1.57</v>
+      </c>
       <c r="AC10" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1833,22 +1992,25 @@
       <c r="AG10">
         <v>1.260191321372986</v>
       </c>
-      <c r="AH10" t="s">
-        <v>201</v>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>300322</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>4.58</v>
@@ -1866,7 +2028,7 @@
         <v>361087.92</v>
       </c>
       <c r="J11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K11">
         <v>13</v>
@@ -1907,8 +2069,23 @@
       <c r="W11">
         <v>-1.65</v>
       </c>
+      <c r="X11">
+        <v>-7.67</v>
+      </c>
+      <c r="Y11">
+        <v>29.18</v>
+      </c>
+      <c r="Z11">
+        <v>-0.92</v>
+      </c>
       <c r="AC11" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1916,22 +2093,25 @@
       <c r="AG11">
         <v>12.20256614685059</v>
       </c>
-      <c r="AH11" t="s">
-        <v>201</v>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>300368</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>-2.44</v>
@@ -1949,7 +2129,7 @@
         <v>251683.48</v>
       </c>
       <c r="J12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K12">
         <v>4</v>
@@ -1990,8 +2170,23 @@
       <c r="W12">
         <v>-2.49</v>
       </c>
+      <c r="X12">
+        <v>-11.45</v>
+      </c>
+      <c r="Y12">
+        <v>17</v>
+      </c>
+      <c r="Z12">
+        <v>-1.16</v>
+      </c>
       <c r="AC12" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -1999,22 +2194,25 @@
       <c r="AG12">
         <v>-0.3202313780784607</v>
       </c>
-      <c r="AH12" t="s">
-        <v>201</v>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>300398</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>0.09</v>
@@ -2032,7 +2230,7 @@
         <v>242218.21</v>
       </c>
       <c r="J13" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -2073,8 +2271,23 @@
       <c r="W13">
         <v>-0.87</v>
       </c>
+      <c r="X13">
+        <v>-2.84</v>
+      </c>
+      <c r="Y13">
+        <v>23.89</v>
+      </c>
+      <c r="Z13">
+        <v>2.93</v>
+      </c>
       <c r="AC13" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -2082,22 +2295,25 @@
       <c r="AG13">
         <v>4.61411190032959</v>
       </c>
-      <c r="AH13" t="s">
-        <v>201</v>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>300400</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>0.55</v>
@@ -2115,7 +2331,7 @@
         <v>67756.63</v>
       </c>
       <c r="J14" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -2156,8 +2372,23 @@
       <c r="W14">
         <v>0.09</v>
       </c>
+      <c r="X14">
+        <v>4.07</v>
+      </c>
+      <c r="Y14">
+        <v>27</v>
+      </c>
+      <c r="Z14">
+        <v>13.26</v>
+      </c>
       <c r="AC14" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>1</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -2165,22 +2396,25 @@
       <c r="AG14">
         <v>1.865808010101318</v>
       </c>
-      <c r="AH14" t="s">
-        <v>201</v>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>300430</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>7.83</v>
@@ -2198,7 +2432,7 @@
         <v>129087.32</v>
       </c>
       <c r="J15" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -2239,8 +2473,23 @@
       <c r="W15">
         <v>0.67</v>
       </c>
+      <c r="X15">
+        <v>-1.74</v>
+      </c>
+      <c r="Y15">
+        <v>25.88</v>
+      </c>
+      <c r="Z15">
+        <v>4.99</v>
+      </c>
       <c r="AC15" t="s">
-        <v>200</v>
+        <v>201</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2248,22 +2497,25 @@
       <c r="AG15">
         <v>0.830321729183197</v>
       </c>
-      <c r="AH15" t="s">
-        <v>201</v>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>300436</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>1.21</v>
@@ -2281,7 +2533,7 @@
         <v>177037.31</v>
       </c>
       <c r="J16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K16">
         <v>30</v>
@@ -2322,8 +2574,23 @@
       <c r="W16">
         <v>-0.76</v>
       </c>
+      <c r="X16">
+        <v>6.39</v>
+      </c>
+      <c r="Y16">
+        <v>150.2</v>
+      </c>
+      <c r="Z16">
+        <v>9.76</v>
+      </c>
       <c r="AC16" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>1</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2331,22 +2598,25 @@
       <c r="AG16">
         <v>0.5635979175567627</v>
       </c>
-      <c r="AH16" t="s">
-        <v>201</v>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>300455</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>0.9</v>
@@ -2364,7 +2634,7 @@
         <v>126382.17</v>
       </c>
       <c r="J17" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K17">
         <v>7</v>
@@ -2405,8 +2675,23 @@
       <c r="W17">
         <v>-0.35</v>
       </c>
+      <c r="X17">
+        <v>-5.51</v>
+      </c>
+      <c r="Y17">
+        <v>19.5</v>
+      </c>
+      <c r="Z17">
+        <v>2.25</v>
+      </c>
       <c r="AC17" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -2414,22 +2699,25 @@
       <c r="AG17">
         <v>7.451911926269531</v>
       </c>
-      <c r="AH17" t="s">
-        <v>201</v>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>300486</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>10.77</v>
@@ -2447,7 +2735,7 @@
         <v>135921.24</v>
       </c>
       <c r="J18" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -2488,8 +2776,23 @@
       <c r="W18">
         <v>0.51</v>
       </c>
+      <c r="X18">
+        <v>-0.33</v>
+      </c>
+      <c r="Y18">
+        <v>18.69</v>
+      </c>
+      <c r="Z18">
+        <v>3.83</v>
+      </c>
       <c r="AC18" t="s">
-        <v>200</v>
+        <v>201</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -2497,22 +2800,25 @@
       <c r="AG18">
         <v>1.986005783081055</v>
       </c>
-      <c r="AH18" t="s">
-        <v>201</v>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>300499</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>6.7</v>
@@ -2530,7 +2836,7 @@
         <v>211016.1</v>
       </c>
       <c r="J19" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -2571,8 +2877,23 @@
       <c r="W19">
         <v>0.06</v>
       </c>
+      <c r="X19">
+        <v>-1.03</v>
+      </c>
+      <c r="Y19">
+        <v>25.38</v>
+      </c>
+      <c r="Z19">
+        <v>4.19</v>
+      </c>
       <c r="AC19" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -2580,22 +2901,25 @@
       <c r="AG19">
         <v>6.71278715133667</v>
       </c>
-      <c r="AH19" t="s">
-        <v>201</v>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>300539</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>-1.65</v>
@@ -2613,7 +2937,7 @@
         <v>82730.27</v>
       </c>
       <c r="J20" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K20">
         <v>5</v>
@@ -2654,8 +2978,23 @@
       <c r="W20">
         <v>-1.68</v>
       </c>
+      <c r="X20">
+        <v>-5.12</v>
+      </c>
+      <c r="Y20">
+        <v>26.66</v>
+      </c>
+      <c r="Z20">
+        <v>-0.34</v>
+      </c>
       <c r="AC20" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2663,22 +3002,25 @@
       <c r="AG20">
         <v>-3.730683088302612</v>
       </c>
-      <c r="AH20" t="s">
-        <v>201</v>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>300548</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>5.28</v>
@@ -2696,7 +3038,7 @@
         <v>269044.63</v>
       </c>
       <c r="J21" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K21">
         <v>22</v>
@@ -2737,8 +3079,23 @@
       <c r="W21">
         <v>0.97</v>
       </c>
+      <c r="X21">
+        <v>-6.76</v>
+      </c>
+      <c r="Y21">
+        <v>96.90000000000001</v>
+      </c>
+      <c r="Z21">
+        <v>-0.58</v>
+      </c>
       <c r="AC21" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2746,22 +3103,25 @@
       <c r="AG21">
         <v>-4.388290405273438</v>
       </c>
-      <c r="AH21" t="s">
-        <v>201</v>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>300584</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>-3.1</v>
@@ -2779,7 +3139,7 @@
         <v>92767.16</v>
       </c>
       <c r="J22" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -2820,8 +3180,23 @@
       <c r="W22">
         <v>-0.48</v>
       </c>
+      <c r="X22">
+        <v>6.72</v>
+      </c>
+      <c r="Y22">
+        <v>55.58</v>
+      </c>
+      <c r="Z22">
+        <v>11.81</v>
+      </c>
       <c r="AC22" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>1</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2829,22 +3204,25 @@
       <c r="AG22">
         <v>0.9260662198066711</v>
       </c>
-      <c r="AH22" t="s">
-        <v>201</v>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>300593</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>2.77</v>
@@ -2862,7 +3240,7 @@
         <v>50395.66</v>
       </c>
       <c r="J23" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K23">
         <v>4</v>
@@ -2903,8 +3281,23 @@
       <c r="W23">
         <v>0.04</v>
       </c>
+      <c r="X23">
+        <v>-7.34</v>
+      </c>
+      <c r="Y23">
+        <v>18.87</v>
+      </c>
+      <c r="Z23">
+        <v>-0.32</v>
+      </c>
       <c r="AC23" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -2912,22 +3305,25 @@
       <c r="AG23">
         <v>3.106211423873901</v>
       </c>
-      <c r="AH23" t="s">
-        <v>201</v>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>300600</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>3.57</v>
@@ -2945,7 +3341,7 @@
         <v>98029.44</v>
       </c>
       <c r="J24" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K24">
         <v>11</v>
@@ -2986,8 +3382,23 @@
       <c r="W24">
         <v>-0.13</v>
       </c>
+      <c r="X24">
+        <v>0.9</v>
+      </c>
+      <c r="Y24">
+        <v>21.56</v>
+      </c>
+      <c r="Z24">
+        <v>1.84</v>
+      </c>
       <c r="AC24" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -2995,22 +3406,25 @@
       <c r="AG24">
         <v>-2.18784236907959</v>
       </c>
-      <c r="AH24" t="s">
-        <v>201</v>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>300620</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>20.01</v>
@@ -3028,7 +3442,7 @@
         <v>220395.9</v>
       </c>
       <c r="J25" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -3069,8 +3483,23 @@
       <c r="W25">
         <v>1.05</v>
       </c>
+      <c r="X25">
+        <v>0.95</v>
+      </c>
+      <c r="Y25">
+        <v>86.97</v>
+      </c>
+      <c r="Z25">
+        <v>9.67</v>
+      </c>
       <c r="AC25" t="s">
-        <v>200</v>
+        <v>201</v>
+      </c>
+      <c r="AD25">
+        <v>1</v>
+      </c>
+      <c r="AE25">
+        <v>1</v>
       </c>
       <c r="AF25">
         <v>1</v>
@@ -3078,22 +3507,25 @@
       <c r="AG25">
         <v>12.66905212402344</v>
       </c>
-      <c r="AH25" t="s">
-        <v>202</v>
+      <c r="AH25">
+        <v>1</v>
+      </c>
+      <c r="AI25">
+        <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>300637</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>6.63</v>
@@ -3111,7 +3543,7 @@
         <v>126234.84</v>
       </c>
       <c r="J26" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -3152,8 +3584,23 @@
       <c r="W26">
         <v>0.89</v>
       </c>
+      <c r="X26">
+        <v>-5.25</v>
+      </c>
+      <c r="Y26">
+        <v>17.77</v>
+      </c>
+      <c r="Z26">
+        <v>13.84</v>
+      </c>
       <c r="AC26" t="s">
-        <v>200</v>
+        <v>201</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>1</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -3161,22 +3608,25 @@
       <c r="AG26">
         <v>27.70840263366699</v>
       </c>
-      <c r="AH26" t="s">
-        <v>201</v>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>300648</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>3.42</v>
@@ -3194,7 +3644,7 @@
         <v>62011.21</v>
       </c>
       <c r="J27" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K27">
         <v>10</v>
@@ -3235,8 +3685,23 @@
       <c r="W27">
         <v>-1.04</v>
       </c>
+      <c r="X27">
+        <v>2.02</v>
+      </c>
+      <c r="Y27">
+        <v>59.98</v>
+      </c>
+      <c r="Z27">
+        <v>5.39</v>
+      </c>
       <c r="AC27" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -3244,22 +3709,25 @@
       <c r="AG27">
         <v>0.9865126609802246</v>
       </c>
-      <c r="AH27" t="s">
-        <v>201</v>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>300671</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>0.9399999999999999</v>
@@ -3277,7 +3745,7 @@
         <v>140651.32</v>
       </c>
       <c r="J28" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -3318,8 +3786,23 @@
       <c r="W28">
         <v>-0.65</v>
       </c>
+      <c r="X28">
+        <v>-5.93</v>
+      </c>
+      <c r="Y28">
+        <v>43.18</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
       <c r="AC28" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -3327,22 +3810,25 @@
       <c r="AG28">
         <v>4.794363975524902</v>
       </c>
-      <c r="AH28" t="s">
-        <v>201</v>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>300684</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>-0.68</v>
@@ -3360,7 +3846,7 @@
         <v>113783.56</v>
       </c>
       <c r="J29" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K29">
         <v>11</v>
@@ -3401,8 +3887,23 @@
       <c r="W29">
         <v>-0.9399999999999999</v>
       </c>
+      <c r="X29">
+        <v>-5.01</v>
+      </c>
+      <c r="Y29">
+        <v>33.67</v>
+      </c>
+      <c r="Z29">
+        <v>0.36</v>
+      </c>
       <c r="AC29" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -3410,22 +3911,25 @@
       <c r="AG29">
         <v>1.674362778663635</v>
       </c>
-      <c r="AH29" t="s">
-        <v>201</v>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>300689</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>-4.73</v>
@@ -3443,7 +3947,7 @@
         <v>59424.68</v>
       </c>
       <c r="J30" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K30">
         <v>6</v>
@@ -3484,8 +3988,23 @@
       <c r="W30">
         <v>-0.37</v>
       </c>
+      <c r="X30">
+        <v>-6.51</v>
+      </c>
+      <c r="Y30">
+        <v>60.66</v>
+      </c>
+      <c r="Z30">
+        <v>-0.51</v>
+      </c>
       <c r="AC30" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3493,22 +4012,25 @@
       <c r="AG30">
         <v>3.060409307479858</v>
       </c>
-      <c r="AH30" t="s">
-        <v>201</v>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>300690</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>2.32</v>
@@ -3526,7 +4048,7 @@
         <v>165231.03</v>
       </c>
       <c r="J31" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -3567,8 +4089,23 @@
       <c r="W31">
         <v>1</v>
       </c>
+      <c r="X31">
+        <v>-7.4</v>
+      </c>
+      <c r="Y31">
+        <v>35.79</v>
+      </c>
+      <c r="Z31">
+        <v>-1.13</v>
+      </c>
       <c r="AC31" t="s">
-        <v>200</v>
+        <v>201</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -3576,22 +4113,25 @@
       <c r="AG31">
         <v>-0.8673073053359985</v>
       </c>
-      <c r="AH31" t="s">
-        <v>201</v>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>300696</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>3.21</v>
@@ -3609,7 +4149,7 @@
         <v>91647.96000000001</v>
       </c>
       <c r="J32" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K32">
         <v>8</v>
@@ -3650,8 +4190,23 @@
       <c r="W32">
         <v>0.19</v>
       </c>
+      <c r="X32">
+        <v>-6.57</v>
+      </c>
+      <c r="Y32">
+        <v>31.83</v>
+      </c>
+      <c r="Z32">
+        <v>0.13</v>
+      </c>
       <c r="AC32" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -3659,22 +4214,25 @@
       <c r="AG32">
         <v>2.59383749961853</v>
       </c>
-      <c r="AH32" t="s">
-        <v>201</v>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>300697</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>9.050000000000001</v>
@@ -3692,7 +4250,7 @@
         <v>88240.49000000001</v>
       </c>
       <c r="J33" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -3733,8 +4291,23 @@
       <c r="W33">
         <v>1.65</v>
       </c>
+      <c r="X33">
+        <v>-5.33</v>
+      </c>
+      <c r="Y33">
+        <v>16.69</v>
+      </c>
+      <c r="Z33">
+        <v>1.15</v>
+      </c>
       <c r="AC33" t="s">
-        <v>200</v>
+        <v>201</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -3742,22 +4315,25 @@
       <c r="AG33">
         <v>3.684636354446411</v>
       </c>
-      <c r="AH33" t="s">
-        <v>201</v>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>300703</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>-0.45</v>
@@ -3775,7 +4351,7 @@
         <v>54933.85</v>
       </c>
       <c r="J34" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K34">
         <v>4</v>
@@ -3816,8 +4392,23 @@
       <c r="W34">
         <v>-0.05</v>
       </c>
+      <c r="X34">
+        <v>7.01</v>
+      </c>
+      <c r="Y34">
+        <v>37.22</v>
+      </c>
+      <c r="Z34">
+        <v>12.45</v>
+      </c>
       <c r="AC34" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>1</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -3825,22 +4416,25 @@
       <c r="AG34">
         <v>4.554759502410889</v>
       </c>
-      <c r="AH34" t="s">
-        <v>201</v>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>300706</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>1.25</v>
@@ -3858,7 +4452,7 @@
         <v>153645.06</v>
       </c>
       <c r="J35" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K35">
         <v>14</v>
@@ -3899,8 +4493,23 @@
       <c r="W35">
         <v>-1.56</v>
       </c>
+      <c r="X35">
+        <v>-6.95</v>
+      </c>
+      <c r="Y35">
+        <v>49.64</v>
+      </c>
+      <c r="Z35">
+        <v>0.55</v>
+      </c>
       <c r="AC35" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -3908,22 +4517,25 @@
       <c r="AG35">
         <v>4.386091232299805</v>
       </c>
-      <c r="AH35" t="s">
-        <v>201</v>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>300731</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <v>6.97</v>
@@ -3941,7 +4553,7 @@
         <v>139229.25</v>
       </c>
       <c r="J36" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K36">
         <v>9</v>
@@ -3982,8 +4594,23 @@
       <c r="W36">
         <v>1.6</v>
       </c>
+      <c r="X36">
+        <v>-7.02</v>
+      </c>
+      <c r="Y36">
+        <v>53.98</v>
+      </c>
+      <c r="Z36">
+        <v>3.21</v>
+      </c>
       <c r="AC36" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -3991,22 +4618,25 @@
       <c r="AG36">
         <v>5.829483032226562</v>
       </c>
-      <c r="AH36" t="s">
-        <v>201</v>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>300753</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37">
         <v>1.85</v>
@@ -4024,7 +4654,7 @@
         <v>79466.39</v>
       </c>
       <c r="J37" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K37">
         <v>1</v>
@@ -4065,8 +4695,23 @@
       <c r="W37">
         <v>-0.04</v>
       </c>
+      <c r="X37">
+        <v>2.71</v>
+      </c>
+      <c r="Y37">
+        <v>37.97</v>
+      </c>
+      <c r="Z37">
+        <v>6.24</v>
+      </c>
       <c r="AC37" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -4074,22 +4719,25 @@
       <c r="AG37">
         <v>4.000391960144043</v>
       </c>
-      <c r="AH37" t="s">
-        <v>201</v>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>300772</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38">
         <v>4.38</v>
@@ -4107,7 +4755,7 @@
         <v>77212.31</v>
       </c>
       <c r="J38" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K38">
         <v>1</v>
@@ -4148,8 +4796,23 @@
       <c r="W38">
         <v>0.4</v>
       </c>
+      <c r="X38">
+        <v>-3.2</v>
+      </c>
+      <c r="Y38">
+        <v>14.97</v>
+      </c>
+      <c r="Z38">
+        <v>-0.2</v>
+      </c>
       <c r="AC38" t="s">
-        <v>200</v>
+        <v>201</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -4157,22 +4820,25 @@
       <c r="AG38">
         <v>4.954106330871582</v>
       </c>
-      <c r="AH38" t="s">
-        <v>201</v>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>300780</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39">
         <v>-3.7</v>
@@ -4190,7 +4856,7 @@
         <v>52842.45</v>
       </c>
       <c r="J39" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K39">
         <v>4</v>
@@ -4231,8 +4897,23 @@
       <c r="W39">
         <v>-2.07</v>
       </c>
+      <c r="X39">
+        <v>-8.07</v>
+      </c>
+      <c r="Y39">
+        <v>20.86</v>
+      </c>
+      <c r="Z39">
+        <v>-1</v>
+      </c>
       <c r="AC39" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -4240,22 +4921,25 @@
       <c r="AG39">
         <v>1.422392249107361</v>
       </c>
-      <c r="AH39" t="s">
-        <v>201</v>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>300803</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <v>3.12</v>
@@ -4273,7 +4957,7 @@
         <v>689769.52</v>
       </c>
       <c r="J40" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K40">
         <v>2</v>
@@ -4314,8 +4998,23 @@
       <c r="W40">
         <v>0.3</v>
       </c>
+      <c r="X40">
+        <v>-4.47</v>
+      </c>
+      <c r="Y40">
+        <v>96.5</v>
+      </c>
+      <c r="Z40">
+        <v>0.6899999999999999</v>
+      </c>
       <c r="AC40" t="s">
-        <v>200</v>
+        <v>201</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -4323,22 +5022,25 @@
       <c r="AG40">
         <v>0.8568087816238403</v>
       </c>
-      <c r="AH40" t="s">
-        <v>201</v>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>300815</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41">
         <v>14.17</v>
@@ -4356,7 +5058,7 @@
         <v>358218.73</v>
       </c>
       <c r="J41" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K41">
         <v>2</v>
@@ -4397,8 +5099,23 @@
       <c r="W41">
         <v>-3.37</v>
       </c>
+      <c r="X41">
+        <v>-11.46</v>
+      </c>
+      <c r="Y41">
+        <v>31.7</v>
+      </c>
+      <c r="Z41">
+        <v>-5.88</v>
+      </c>
       <c r="AC41" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
       </c>
       <c r="AF41">
         <v>1</v>
@@ -4406,22 +5123,25 @@
       <c r="AG41">
         <v>-4.405816555023193</v>
       </c>
-      <c r="AH41" t="s">
-        <v>201</v>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>300841</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <v>3.48</v>
@@ -4439,7 +5159,7 @@
         <v>74334.5</v>
       </c>
       <c r="J42" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K42">
         <v>10</v>
@@ -4480,8 +5200,23 @@
       <c r="W42">
         <v>0.61</v>
       </c>
+      <c r="X42">
+        <v>-1.1</v>
+      </c>
+      <c r="Y42">
+        <v>91.98999999999999</v>
+      </c>
+      <c r="Z42">
+        <v>2.45</v>
+      </c>
       <c r="AC42" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -4489,22 +5224,25 @@
       <c r="AG42">
         <v>1.177396297454834</v>
       </c>
-      <c r="AH42" t="s">
-        <v>201</v>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43">
         <v>300870</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E43">
         <v>12.32</v>
@@ -4522,7 +5260,7 @@
         <v>210647.62</v>
       </c>
       <c r="J43" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K43">
         <v>1</v>
@@ -4563,8 +5301,23 @@
       <c r="W43">
         <v>0.32</v>
       </c>
+      <c r="X43">
+        <v>13.48</v>
+      </c>
+      <c r="Y43">
+        <v>220.2</v>
+      </c>
+      <c r="Z43">
+        <v>20</v>
+      </c>
       <c r="AC43" t="s">
-        <v>200</v>
+        <v>201</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>1</v>
       </c>
       <c r="AF43">
         <v>0</v>
@@ -4572,22 +5325,25 @@
       <c r="AG43">
         <v>6.632184505462646</v>
       </c>
-      <c r="AH43" t="s">
-        <v>201</v>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44">
         <v>300873</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44">
         <v>-3.6</v>
@@ -4605,7 +5361,7 @@
         <v>42527.01</v>
       </c>
       <c r="J44" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K44">
         <v>3</v>
@@ -4646,8 +5402,23 @@
       <c r="W44">
         <v>-0.07000000000000001</v>
       </c>
+      <c r="X44">
+        <v>-4.69</v>
+      </c>
+      <c r="Y44">
+        <v>26.17</v>
+      </c>
+      <c r="Z44">
+        <v>0.62</v>
+      </c>
       <c r="AC44" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
       </c>
       <c r="AF44">
         <v>0</v>
@@ -4655,22 +5426,25 @@
       <c r="AG44">
         <v>0.8196730017662048</v>
       </c>
-      <c r="AH44" t="s">
-        <v>201</v>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C45">
         <v>300875</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E45">
         <v>0.84</v>
@@ -4688,7 +5462,7 @@
         <v>118434.39</v>
       </c>
       <c r="J45" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K45">
         <v>6</v>
@@ -4729,8 +5503,23 @@
       <c r="W45">
         <v>-0.1</v>
       </c>
+      <c r="X45">
+        <v>-9.26</v>
+      </c>
+      <c r="Y45">
+        <v>60.42</v>
+      </c>
+      <c r="Z45">
+        <v>-0.84</v>
+      </c>
       <c r="AC45" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>0</v>
       </c>
       <c r="AF45">
         <v>0</v>
@@ -4738,22 +5527,25 @@
       <c r="AG45">
         <v>4.724727153778076</v>
       </c>
-      <c r="AH45" t="s">
-        <v>201</v>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C46">
         <v>300885</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E46">
         <v>-1.55</v>
@@ -4771,7 +5563,7 @@
         <v>88257.67999999999</v>
       </c>
       <c r="J46" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K46">
         <v>16</v>
@@ -4812,8 +5604,23 @@
       <c r="W46">
         <v>-0.75</v>
       </c>
+      <c r="X46">
+        <v>-7.36</v>
+      </c>
+      <c r="Y46">
+        <v>29.06</v>
+      </c>
+      <c r="Z46">
+        <v>-2.35</v>
+      </c>
       <c r="AC46" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
       </c>
       <c r="AF46">
         <v>1</v>
@@ -4821,22 +5628,25 @@
       <c r="AG46">
         <v>19.1802806854248</v>
       </c>
-      <c r="AH46" t="s">
-        <v>201</v>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C47">
         <v>300902</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E47">
         <v>2.9</v>
@@ -4854,7 +5664,7 @@
         <v>46399.53</v>
       </c>
       <c r="J47" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K47">
         <v>1</v>
@@ -4895,8 +5705,23 @@
       <c r="W47">
         <v>0.34</v>
       </c>
+      <c r="X47">
+        <v>-0.63</v>
+      </c>
+      <c r="Y47">
+        <v>28</v>
+      </c>
+      <c r="Z47">
+        <v>3.7</v>
+      </c>
       <c r="AC47" t="s">
-        <v>200</v>
+        <v>201</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>0</v>
       </c>
       <c r="AF47">
         <v>0</v>
@@ -4904,22 +5729,25 @@
       <c r="AG47">
         <v>-1.987269759178162</v>
       </c>
-      <c r="AH47" t="s">
-        <v>201</v>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:34">
+    <row r="48" spans="1:35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C48">
         <v>300916</v>
       </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E48">
         <v>-1.12</v>
@@ -4937,7 +5765,7 @@
         <v>31165.05</v>
       </c>
       <c r="J48" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K48">
         <v>7</v>
@@ -4978,8 +5806,23 @@
       <c r="W48">
         <v>-0.5</v>
       </c>
+      <c r="X48">
+        <v>-2.53</v>
+      </c>
+      <c r="Y48">
+        <v>43.35</v>
+      </c>
+      <c r="Z48">
+        <v>-0.12</v>
+      </c>
       <c r="AC48" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
       </c>
       <c r="AF48">
         <v>0</v>
@@ -4987,22 +5830,25 @@
       <c r="AG48">
         <v>1.281754374504089</v>
       </c>
-      <c r="AH48" t="s">
-        <v>201</v>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:34">
+    <row r="49" spans="1:35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C49">
         <v>300965</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E49">
         <v>2.65</v>
@@ -5020,7 +5866,7 @@
         <v>35860.39</v>
       </c>
       <c r="J49" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K49">
         <v>9</v>
@@ -5061,8 +5907,23 @@
       <c r="W49">
         <v>0.53</v>
       </c>
+      <c r="X49">
+        <v>-8.949999999999999</v>
+      </c>
+      <c r="Y49">
+        <v>79.01000000000001</v>
+      </c>
+      <c r="Z49">
+        <v>-2.82</v>
+      </c>
       <c r="AC49" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
       </c>
       <c r="AF49">
         <v>0</v>
@@ -5070,22 +5931,25 @@
       <c r="AG49">
         <v>-8.300312995910645</v>
       </c>
-      <c r="AH49" t="s">
-        <v>201</v>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:34">
+    <row r="50" spans="1:35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C50">
         <v>300969</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E50">
         <v>0.01</v>
@@ -5103,7 +5967,7 @@
         <v>39183.53</v>
       </c>
       <c r="J50" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K50">
         <v>1</v>
@@ -5144,8 +6008,23 @@
       <c r="W50">
         <v>-0.19</v>
       </c>
+      <c r="X50">
+        <v>-5.18</v>
+      </c>
+      <c r="Y50">
+        <v>90.98999999999999</v>
+      </c>
+      <c r="Z50">
+        <v>-0.02</v>
+      </c>
       <c r="AC50" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>0</v>
       </c>
       <c r="AF50">
         <v>0</v>
@@ -5153,22 +6032,25 @@
       <c r="AG50">
         <v>-4.074326992034912</v>
       </c>
-      <c r="AH50" t="s">
-        <v>201</v>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:34">
+    <row r="51" spans="1:35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C51">
         <v>300981</v>
       </c>
       <c r="D51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E51">
         <v>1.66</v>
@@ -5186,7 +6068,7 @@
         <v>55502.67</v>
       </c>
       <c r="J51" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K51">
         <v>4</v>
@@ -5227,8 +6109,23 @@
       <c r="W51">
         <v>-0.02</v>
       </c>
+      <c r="X51">
+        <v>-9.91</v>
+      </c>
+      <c r="Y51">
+        <v>17.38</v>
+      </c>
+      <c r="Z51">
+        <v>-2.14</v>
+      </c>
       <c r="AC51" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>0</v>
       </c>
       <c r="AF51">
         <v>0</v>
@@ -5236,22 +6133,25 @@
       <c r="AG51">
         <v>4.077414989471436</v>
       </c>
-      <c r="AH51" t="s">
-        <v>201</v>
+      <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:34">
+    <row r="52" spans="1:35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C52">
         <v>300993</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E52">
         <v>2.94</v>
@@ -5269,7 +6169,7 @@
         <v>56815.76</v>
       </c>
       <c r="J52" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K52">
         <v>6</v>
@@ -5310,8 +6210,23 @@
       <c r="W52">
         <v>1.02</v>
       </c>
+      <c r="X52">
+        <v>-3.33</v>
+      </c>
+      <c r="Y52">
+        <v>19.57</v>
+      </c>
+      <c r="Z52">
+        <v>3.38</v>
+      </c>
       <c r="AC52" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
       </c>
       <c r="AF52">
         <v>1</v>
@@ -5319,22 +6234,25 @@
       <c r="AG52">
         <v>8.261018753051758</v>
       </c>
-      <c r="AH52" t="s">
-        <v>201</v>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:34">
+    <row r="53" spans="1:35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C53">
         <v>301005</v>
       </c>
       <c r="D53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E53">
         <v>2.89</v>
@@ -5352,7 +6270,7 @@
         <v>126574.69</v>
       </c>
       <c r="J53" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K53">
         <v>7</v>
@@ -5393,8 +6311,23 @@
       <c r="W53">
         <v>-0.14</v>
       </c>
+      <c r="X53">
+        <v>-7.69</v>
+      </c>
+      <c r="Y53">
+        <v>56.89</v>
+      </c>
+      <c r="Z53">
+        <v>1.79</v>
+      </c>
       <c r="AC53" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <v>0</v>
       </c>
       <c r="AF53">
         <v>0</v>
@@ -5402,22 +6335,25 @@
       <c r="AG53">
         <v>0.9505439400672913</v>
       </c>
-      <c r="AH53" t="s">
-        <v>201</v>
+      <c r="AH53">
+        <v>0</v>
+      </c>
+      <c r="AI53">
+        <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:34">
+    <row r="54" spans="1:35">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C54">
         <v>301018</v>
       </c>
       <c r="D54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E54">
         <v>7.96</v>
@@ -5435,7 +6371,7 @@
         <v>166225.52</v>
       </c>
       <c r="J54" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K54">
         <v>1</v>
@@ -5476,8 +6412,23 @@
       <c r="W54">
         <v>-0.11</v>
       </c>
+      <c r="X54">
+        <v>-4.12</v>
+      </c>
+      <c r="Y54">
+        <v>59.77</v>
+      </c>
+      <c r="Z54">
+        <v>-1.17</v>
+      </c>
       <c r="AC54" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <v>0</v>
       </c>
       <c r="AF54">
         <v>0</v>
@@ -5485,22 +6436,25 @@
       <c r="AG54">
         <v>3.678045272827148</v>
       </c>
-      <c r="AH54" t="s">
-        <v>201</v>
+      <c r="AH54">
+        <v>0</v>
+      </c>
+      <c r="AI54">
+        <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:34">
+    <row r="55" spans="1:35">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C55">
         <v>301022</v>
       </c>
       <c r="D55" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E55">
         <v>-5.68</v>
@@ -5518,7 +6472,7 @@
         <v>49757.57</v>
       </c>
       <c r="J55" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K55">
         <v>6</v>
@@ -5559,8 +6513,23 @@
       <c r="W55">
         <v>-0.46</v>
       </c>
+      <c r="X55">
+        <v>-10.73</v>
+      </c>
+      <c r="Y55">
+        <v>46.66</v>
+      </c>
+      <c r="Z55">
+        <v>-0.06</v>
+      </c>
       <c r="AC55" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <v>0</v>
       </c>
       <c r="AF55">
         <v>0</v>
@@ -5568,22 +6537,25 @@
       <c r="AG55">
         <v>0.01353544089943171</v>
       </c>
-      <c r="AH55" t="s">
-        <v>201</v>
+      <c r="AH55">
+        <v>0</v>
+      </c>
+      <c r="AI55">
+        <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:34">
+    <row r="56" spans="1:35">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C56">
         <v>301038</v>
       </c>
       <c r="D56" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E56">
         <v>3.59</v>
@@ -5601,7 +6573,7 @@
         <v>106249.75</v>
       </c>
       <c r="J56" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K56">
         <v>12</v>
@@ -5642,8 +6614,23 @@
       <c r="W56">
         <v>-0.27</v>
       </c>
+      <c r="X56">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="Y56">
+        <v>40</v>
+      </c>
+      <c r="Z56">
+        <v>9.92</v>
+      </c>
       <c r="AC56" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <v>1</v>
       </c>
       <c r="AF56">
         <v>0</v>
@@ -5651,22 +6638,25 @@
       <c r="AG56">
         <v>5.030985355377197</v>
       </c>
-      <c r="AH56" t="s">
-        <v>201</v>
+      <c r="AH56">
+        <v>0</v>
+      </c>
+      <c r="AI56">
+        <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:34">
+    <row r="57" spans="1:35">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C57">
         <v>301048</v>
       </c>
       <c r="D57" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E57">
         <v>-4.42</v>
@@ -5684,7 +6674,7 @@
         <v>68887.53</v>
       </c>
       <c r="J57" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K57">
         <v>3</v>
@@ -5725,8 +6715,23 @@
       <c r="W57">
         <v>-0.6899999999999999</v>
       </c>
+      <c r="X57">
+        <v>-7.75</v>
+      </c>
+      <c r="Y57">
+        <v>13.98</v>
+      </c>
+      <c r="Z57">
+        <v>-0.57</v>
+      </c>
       <c r="AC57" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AE57">
+        <v>0</v>
       </c>
       <c r="AF57">
         <v>0</v>
@@ -5734,22 +6739,25 @@
       <c r="AG57">
         <v>4.450054168701172</v>
       </c>
-      <c r="AH57" t="s">
-        <v>201</v>
+      <c r="AH57">
+        <v>0</v>
+      </c>
+      <c r="AI57">
+        <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:34">
+    <row r="58" spans="1:35">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C58">
         <v>301052</v>
       </c>
       <c r="D58" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E58">
         <v>0.1</v>
@@ -5767,7 +6775,7 @@
         <v>33820.55</v>
       </c>
       <c r="J58" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K58">
         <v>1</v>
@@ -5808,8 +6816,23 @@
       <c r="W58">
         <v>-0.52</v>
       </c>
+      <c r="X58">
+        <v>-9.619999999999999</v>
+      </c>
+      <c r="Y58">
+        <v>69.76000000000001</v>
+      </c>
+      <c r="Z58">
+        <v>2.94</v>
+      </c>
       <c r="AC58" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD58">
+        <v>0</v>
+      </c>
+      <c r="AE58">
+        <v>0</v>
       </c>
       <c r="AF58">
         <v>0</v>
@@ -5817,22 +6840,25 @@
       <c r="AG58">
         <v>3.799003839492798</v>
       </c>
-      <c r="AH58" t="s">
-        <v>201</v>
+      <c r="AH58">
+        <v>0</v>
+      </c>
+      <c r="AI58">
+        <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:34">
+    <row r="59" spans="1:35">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C59">
         <v>301069</v>
       </c>
       <c r="D59" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E59">
         <v>0.09</v>
@@ -5850,7 +6876,7 @@
         <v>84461.42</v>
       </c>
       <c r="J59" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K59">
         <v>6</v>
@@ -5891,8 +6917,23 @@
       <c r="W59">
         <v>0.09</v>
       </c>
+      <c r="X59">
+        <v>1</v>
+      </c>
+      <c r="Y59">
+        <v>22.97</v>
+      </c>
+      <c r="Z59">
+        <v>4.22</v>
+      </c>
       <c r="AC59" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD59">
+        <v>0</v>
+      </c>
+      <c r="AE59">
+        <v>0</v>
       </c>
       <c r="AF59">
         <v>0</v>
@@ -5900,22 +6941,25 @@
       <c r="AG59">
         <v>2.201350212097168</v>
       </c>
-      <c r="AH59" t="s">
-        <v>201</v>
+      <c r="AH59">
+        <v>0</v>
+      </c>
+      <c r="AI59">
+        <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:34">
+    <row r="60" spans="1:35">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C60">
         <v>301076</v>
       </c>
       <c r="D60" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E60">
         <v>3.08</v>
@@ -5933,7 +6977,7 @@
         <v>187419.19</v>
       </c>
       <c r="J60" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K60">
         <v>6</v>
@@ -5974,8 +7018,23 @@
       <c r="W60">
         <v>0.38</v>
       </c>
+      <c r="X60">
+        <v>5.24</v>
+      </c>
+      <c r="Y60">
+        <v>55.2</v>
+      </c>
+      <c r="Z60">
+        <v>12.2</v>
+      </c>
       <c r="AC60" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD60">
+        <v>0</v>
+      </c>
+      <c r="AE60">
+        <v>1</v>
       </c>
       <c r="AF60">
         <v>0</v>
@@ -5983,22 +7042,25 @@
       <c r="AG60">
         <v>4.141975402832031</v>
       </c>
-      <c r="AH60" t="s">
-        <v>201</v>
+      <c r="AH60">
+        <v>0</v>
+      </c>
+      <c r="AI60">
+        <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:34">
+    <row r="61" spans="1:35">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C61">
         <v>301095</v>
       </c>
       <c r="D61" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E61">
         <v>5.61</v>
@@ -6016,7 +7078,7 @@
         <v>190377.2</v>
       </c>
       <c r="J61" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K61">
         <v>11</v>
@@ -6057,8 +7119,23 @@
       <c r="W61">
         <v>1.21</v>
       </c>
+      <c r="X61">
+        <v>-3.72</v>
+      </c>
+      <c r="Y61">
+        <v>89.5</v>
+      </c>
+      <c r="Z61">
+        <v>3.35</v>
+      </c>
       <c r="AC61" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD61">
+        <v>0</v>
+      </c>
+      <c r="AE61">
+        <v>0</v>
       </c>
       <c r="AF61">
         <v>0</v>
@@ -6066,22 +7143,25 @@
       <c r="AG61">
         <v>0.3689092099666595</v>
       </c>
-      <c r="AH61" t="s">
-        <v>201</v>
+      <c r="AH61">
+        <v>0</v>
+      </c>
+      <c r="AI61">
+        <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:34">
+    <row r="62" spans="1:35">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C62">
         <v>301112</v>
       </c>
       <c r="D62" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E62">
         <v>-5.17</v>
@@ -6099,7 +7179,7 @@
         <v>37807.09</v>
       </c>
       <c r="J62" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K62">
         <v>2</v>
@@ -6140,8 +7220,23 @@
       <c r="W62">
         <v>-0.48</v>
       </c>
+      <c r="X62">
+        <v>-3.81</v>
+      </c>
+      <c r="Y62">
+        <v>47.46</v>
+      </c>
+      <c r="Z62">
+        <v>-0.02</v>
+      </c>
       <c r="AC62" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD62">
+        <v>0</v>
+      </c>
+      <c r="AE62">
+        <v>0</v>
       </c>
       <c r="AF62">
         <v>0</v>
@@ -6149,22 +7244,25 @@
       <c r="AG62">
         <v>2.022615194320679</v>
       </c>
-      <c r="AH62" t="s">
-        <v>201</v>
+      <c r="AH62">
+        <v>0</v>
+      </c>
+      <c r="AI62">
+        <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:34">
+    <row r="63" spans="1:35">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C63">
         <v>301117</v>
       </c>
       <c r="D63" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E63">
         <v>4.79</v>
@@ -6182,7 +7280,7 @@
         <v>131703.99</v>
       </c>
       <c r="J63" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K63">
         <v>6</v>
@@ -6223,8 +7321,23 @@
       <c r="W63">
         <v>-1.87</v>
       </c>
+      <c r="X63">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="Y63">
+        <v>44.44</v>
+      </c>
+      <c r="Z63">
+        <v>4.25</v>
+      </c>
       <c r="AC63" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD63">
+        <v>0</v>
+      </c>
+      <c r="AE63">
+        <v>0</v>
       </c>
       <c r="AF63">
         <v>0</v>
@@ -6232,22 +7345,25 @@
       <c r="AG63">
         <v>50.09329605102539</v>
       </c>
-      <c r="AH63" t="s">
-        <v>201</v>
+      <c r="AH63">
+        <v>0</v>
+      </c>
+      <c r="AI63">
+        <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:34">
+    <row r="64" spans="1:35">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C64">
         <v>301120</v>
       </c>
       <c r="D64" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E64">
         <v>1.08</v>
@@ -6265,7 +7381,7 @@
         <v>85385.75999999999</v>
       </c>
       <c r="J64" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K64">
         <v>7</v>
@@ -6306,8 +7422,23 @@
       <c r="W64">
         <v>1.47</v>
       </c>
+      <c r="X64">
+        <v>-0.74</v>
+      </c>
+      <c r="Y64">
+        <v>15.4</v>
+      </c>
+      <c r="Z64">
+        <v>3.29</v>
+      </c>
       <c r="AC64" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD64">
+        <v>0</v>
+      </c>
+      <c r="AE64">
+        <v>0</v>
       </c>
       <c r="AF64">
         <v>0</v>
@@ -6315,22 +7446,25 @@
       <c r="AG64">
         <v>0.8107261061668396</v>
       </c>
-      <c r="AH64" t="s">
-        <v>201</v>
+      <c r="AH64">
+        <v>0</v>
+      </c>
+      <c r="AI64">
+        <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:34">
+    <row r="65" spans="1:35">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C65">
         <v>301128</v>
       </c>
       <c r="D65" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E65">
         <v>3.62</v>
@@ -6348,7 +7482,7 @@
         <v>71064.44</v>
       </c>
       <c r="J65" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K65">
         <v>1</v>
@@ -6389,8 +7523,23 @@
       <c r="W65">
         <v>0.28</v>
       </c>
+      <c r="X65">
+        <v>-4.35</v>
+      </c>
+      <c r="Y65">
+        <v>69.66</v>
+      </c>
+      <c r="Z65">
+        <v>0.96</v>
+      </c>
       <c r="AC65" t="s">
-        <v>200</v>
+        <v>201</v>
+      </c>
+      <c r="AD65">
+        <v>0</v>
+      </c>
+      <c r="AE65">
+        <v>0</v>
       </c>
       <c r="AF65">
         <v>0</v>
@@ -6398,22 +7547,25 @@
       <c r="AG65">
         <v>4.118233680725098</v>
       </c>
-      <c r="AH65" t="s">
-        <v>201</v>
+      <c r="AH65">
+        <v>0</v>
+      </c>
+      <c r="AI65">
+        <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:34">
+    <row r="66" spans="1:35">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C66">
         <v>301132</v>
       </c>
       <c r="D66" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E66">
         <v>-0.85</v>
@@ -6431,7 +7583,7 @@
         <v>56397.4</v>
       </c>
       <c r="J66" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K66">
         <v>3</v>
@@ -6472,8 +7624,23 @@
       <c r="W66">
         <v>-0.86</v>
       </c>
+      <c r="X66">
+        <v>-6.41</v>
+      </c>
+      <c r="Y66">
+        <v>42.27</v>
+      </c>
+      <c r="Z66">
+        <v>0.76</v>
+      </c>
       <c r="AC66" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD66">
+        <v>0</v>
+      </c>
+      <c r="AE66">
+        <v>0</v>
       </c>
       <c r="AF66">
         <v>0</v>
@@ -6481,22 +7648,25 @@
       <c r="AG66">
         <v>4.263898372650146</v>
       </c>
-      <c r="AH66" t="s">
-        <v>201</v>
+      <c r="AH66">
+        <v>0</v>
+      </c>
+      <c r="AI66">
+        <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:34">
+    <row r="67" spans="1:35">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C67">
         <v>301150</v>
       </c>
       <c r="D67" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E67">
         <v>16.13</v>
@@ -6514,7 +7684,7 @@
         <v>76463.84</v>
       </c>
       <c r="J67" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K67">
         <v>1</v>
@@ -6555,8 +7725,23 @@
       <c r="W67">
         <v>1.44</v>
       </c>
+      <c r="X67">
+        <v>-1.99</v>
+      </c>
+      <c r="Y67">
+        <v>31.66</v>
+      </c>
+      <c r="Z67">
+        <v>-0.06</v>
+      </c>
       <c r="AC67" t="s">
-        <v>200</v>
+        <v>201</v>
+      </c>
+      <c r="AD67">
+        <v>0</v>
+      </c>
+      <c r="AE67">
+        <v>0</v>
       </c>
       <c r="AF67">
         <v>0</v>
@@ -6564,22 +7749,25 @@
       <c r="AG67">
         <v>5.310842037200928</v>
       </c>
-      <c r="AH67" t="s">
-        <v>201</v>
+      <c r="AH67">
+        <v>0</v>
+      </c>
+      <c r="AI67">
+        <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:34">
+    <row r="68" spans="1:35">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C68">
         <v>301161</v>
       </c>
       <c r="D68" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E68">
         <v>5.07</v>
@@ -6597,7 +7785,7 @@
         <v>64610.48</v>
       </c>
       <c r="J68" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K68">
         <v>8</v>
@@ -6638,8 +7826,23 @@
       <c r="W68">
         <v>1.54</v>
       </c>
+      <c r="X68">
+        <v>-7.91</v>
+      </c>
+      <c r="Y68">
+        <v>40.84</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
       <c r="AC68" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD68">
+        <v>0</v>
+      </c>
+      <c r="AE68">
+        <v>0</v>
       </c>
       <c r="AF68">
         <v>0</v>
@@ -6647,22 +7850,25 @@
       <c r="AG68">
         <v>1.009491562843323</v>
       </c>
-      <c r="AH68" t="s">
-        <v>201</v>
+      <c r="AH68">
+        <v>0</v>
+      </c>
+      <c r="AI68">
+        <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:34">
+    <row r="69" spans="1:35">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C69">
         <v>301165</v>
       </c>
       <c r="D69" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E69">
         <v>0.8</v>
@@ -6680,7 +7886,7 @@
         <v>98794.89</v>
       </c>
       <c r="J69" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K69">
         <v>2</v>
@@ -6721,8 +7927,23 @@
       <c r="W69">
         <v>0.06</v>
       </c>
+      <c r="X69">
+        <v>-1.03</v>
+      </c>
+      <c r="Y69">
+        <v>69.88</v>
+      </c>
+      <c r="Z69">
+        <v>2.52</v>
+      </c>
       <c r="AC69" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD69">
+        <v>0</v>
+      </c>
+      <c r="AE69">
+        <v>0</v>
       </c>
       <c r="AF69">
         <v>0</v>
@@ -6730,22 +7951,25 @@
       <c r="AG69">
         <v>5.290081024169922</v>
       </c>
-      <c r="AH69" t="s">
-        <v>201</v>
+      <c r="AH69">
+        <v>0</v>
+      </c>
+      <c r="AI69">
+        <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:34">
+    <row r="70" spans="1:35">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C70">
         <v>301181</v>
       </c>
       <c r="D70" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E70">
         <v>12.4</v>
@@ -6763,7 +7987,7 @@
         <v>68683.28</v>
       </c>
       <c r="J70" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K70">
         <v>1</v>
@@ -6804,8 +8028,23 @@
       <c r="W70">
         <v>3.65</v>
       </c>
+      <c r="X70">
+        <v>-8.199999999999999</v>
+      </c>
+      <c r="Y70">
+        <v>34.66</v>
+      </c>
+      <c r="Z70">
+        <v>-0.97</v>
+      </c>
       <c r="AC70" t="s">
-        <v>200</v>
+        <v>201</v>
+      </c>
+      <c r="AD70">
+        <v>0</v>
+      </c>
+      <c r="AE70">
+        <v>0</v>
       </c>
       <c r="AF70">
         <v>0</v>
@@ -6813,22 +8052,25 @@
       <c r="AG70">
         <v>-2.456072092056274</v>
       </c>
-      <c r="AH70" t="s">
-        <v>201</v>
+      <c r="AH70">
+        <v>0</v>
+      </c>
+      <c r="AI70">
+        <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:34">
+    <row r="71" spans="1:35">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C71">
         <v>301187</v>
       </c>
       <c r="D71" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E71">
         <v>2.91</v>
@@ -6846,7 +8088,7 @@
         <v>35585.54</v>
       </c>
       <c r="J71" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K71">
         <v>2</v>
@@ -6887,8 +8129,23 @@
       <c r="W71">
         <v>0.85</v>
       </c>
+      <c r="X71">
+        <v>-3.17</v>
+      </c>
+      <c r="Y71">
+        <v>34.96</v>
+      </c>
+      <c r="Z71">
+        <v>0.78</v>
+      </c>
       <c r="AC71" t="s">
-        <v>200</v>
+        <v>201</v>
+      </c>
+      <c r="AD71">
+        <v>0</v>
+      </c>
+      <c r="AE71">
+        <v>0</v>
       </c>
       <c r="AF71">
         <v>0</v>
@@ -6896,22 +8153,25 @@
       <c r="AG71">
         <v>2.273706912994385</v>
       </c>
-      <c r="AH71" t="s">
-        <v>201</v>
+      <c r="AH71">
+        <v>0</v>
+      </c>
+      <c r="AI71">
+        <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:34">
+    <row r="72" spans="1:35">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C72">
         <v>301196</v>
       </c>
       <c r="D72" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E72">
         <v>14.12</v>
@@ -6929,7 +8189,7 @@
         <v>117877.02</v>
       </c>
       <c r="J72" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K72">
         <v>1</v>
@@ -6970,8 +8230,23 @@
       <c r="W72">
         <v>-0.09</v>
       </c>
+      <c r="X72">
+        <v>-4.2</v>
+      </c>
+      <c r="Y72">
+        <v>103</v>
+      </c>
+      <c r="Z72">
+        <v>0.49</v>
+      </c>
       <c r="AC72" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD72">
+        <v>0</v>
+      </c>
+      <c r="AE72">
+        <v>0</v>
       </c>
       <c r="AF72">
         <v>0</v>
@@ -6979,22 +8254,25 @@
       <c r="AG72">
         <v>4.346224784851074</v>
       </c>
-      <c r="AH72" t="s">
-        <v>201</v>
+      <c r="AH72">
+        <v>0</v>
+      </c>
+      <c r="AI72">
+        <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:34">
+    <row r="73" spans="1:35">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C73">
         <v>301200</v>
       </c>
       <c r="D73" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E73">
         <v>7.52</v>
@@ -7012,7 +8290,7 @@
         <v>112684.62</v>
       </c>
       <c r="J73" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K73">
         <v>15</v>
@@ -7053,8 +8331,23 @@
       <c r="W73">
         <v>0.82</v>
       </c>
+      <c r="X73">
+        <v>-12.15</v>
+      </c>
+      <c r="Y73">
+        <v>101.89</v>
+      </c>
+      <c r="Z73">
+        <v>-1.08</v>
+      </c>
       <c r="AC73" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD73">
+        <v>0</v>
+      </c>
+      <c r="AE73">
+        <v>0</v>
       </c>
       <c r="AF73">
         <v>0</v>
@@ -7062,22 +8355,25 @@
       <c r="AG73">
         <v>0.9000310301780701</v>
       </c>
-      <c r="AH73" t="s">
-        <v>201</v>
+      <c r="AH73">
+        <v>0</v>
+      </c>
+      <c r="AI73">
+        <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:34">
+    <row r="74" spans="1:35">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C74">
         <v>301217</v>
       </c>
       <c r="D74" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E74">
         <v>20.02</v>
@@ -7095,7 +8391,7 @@
         <v>255202.12</v>
       </c>
       <c r="J74" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K74">
         <v>28</v>
@@ -7136,8 +8432,23 @@
       <c r="W74">
         <v>1.45</v>
       </c>
+      <c r="X74">
+        <v>-6.15</v>
+      </c>
+      <c r="Y74">
+        <v>29.97</v>
+      </c>
+      <c r="Z74">
+        <v>0.17</v>
+      </c>
       <c r="AC74" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD74">
+        <v>0</v>
+      </c>
+      <c r="AE74">
+        <v>0</v>
       </c>
       <c r="AF74">
         <v>0</v>
@@ -7145,22 +8456,25 @@
       <c r="AG74">
         <v>4.878506660461426</v>
       </c>
-      <c r="AH74" t="s">
-        <v>201</v>
+      <c r="AH74">
+        <v>0</v>
+      </c>
+      <c r="AI74">
+        <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:34">
+    <row r="75" spans="1:35">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C75">
         <v>301232</v>
       </c>
       <c r="D75" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E75">
         <v>-2.86</v>
@@ -7178,7 +8492,7 @@
         <v>45895.43</v>
       </c>
       <c r="J75" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K75">
         <v>3</v>
@@ -7219,8 +8533,23 @@
       <c r="W75">
         <v>-0.58</v>
       </c>
+      <c r="X75">
+        <v>-8.84</v>
+      </c>
+      <c r="Y75">
+        <v>40.99</v>
+      </c>
+      <c r="Z75">
+        <v>-1.84</v>
+      </c>
       <c r="AC75" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD75">
+        <v>0</v>
+      </c>
+      <c r="AE75">
+        <v>0</v>
       </c>
       <c r="AF75">
         <v>0</v>
@@ -7228,22 +8557,25 @@
       <c r="AG75">
         <v>3.480486631393433</v>
       </c>
-      <c r="AH75" t="s">
-        <v>201</v>
+      <c r="AH75">
+        <v>0</v>
+      </c>
+      <c r="AI75">
+        <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:34">
+    <row r="76" spans="1:35">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C76">
         <v>301251</v>
       </c>
       <c r="D76" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E76">
         <v>6.99</v>
@@ -7261,7 +8593,7 @@
         <v>156291.06</v>
       </c>
       <c r="J76" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K76">
         <v>6</v>
@@ -7302,8 +8634,23 @@
       <c r="W76">
         <v>0.97</v>
       </c>
+      <c r="X76">
+        <v>-5.75</v>
+      </c>
+      <c r="Y76">
+        <v>62</v>
+      </c>
+      <c r="Z76">
+        <v>0.75</v>
+      </c>
       <c r="AC76" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD76">
+        <v>0</v>
+      </c>
+      <c r="AE76">
+        <v>0</v>
       </c>
       <c r="AF76">
         <v>0</v>
@@ -7311,22 +8658,25 @@
       <c r="AG76">
         <v>2.976982116699219</v>
       </c>
-      <c r="AH76" t="s">
-        <v>201</v>
+      <c r="AH76">
+        <v>0</v>
+      </c>
+      <c r="AI76">
+        <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:34">
+    <row r="77" spans="1:35">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C77">
         <v>301285</v>
       </c>
       <c r="D77" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E77">
         <v>0.08</v>
@@ -7344,7 +8694,7 @@
         <v>40895.36</v>
       </c>
       <c r="J77" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K77">
         <v>3</v>
@@ -7385,8 +8735,23 @@
       <c r="W77">
         <v>0.88</v>
       </c>
+      <c r="X77">
+        <v>-5.94</v>
+      </c>
+      <c r="Y77">
+        <v>51.5</v>
+      </c>
+      <c r="Z77">
+        <v>0.9399999999999999</v>
+      </c>
       <c r="AC77" t="s">
-        <v>200</v>
+        <v>201</v>
+      </c>
+      <c r="AD77">
+        <v>0</v>
+      </c>
+      <c r="AE77">
+        <v>0</v>
       </c>
       <c r="AF77">
         <v>0</v>
@@ -7394,22 +8759,25 @@
       <c r="AG77">
         <v>-2.081131458282471</v>
       </c>
-      <c r="AH77" t="s">
-        <v>201</v>
+      <c r="AH77">
+        <v>0</v>
+      </c>
+      <c r="AI77">
+        <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:34">
+    <row r="78" spans="1:35">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C78">
         <v>301312</v>
       </c>
       <c r="D78" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E78">
         <v>2.07</v>
@@ -7427,7 +8795,7 @@
         <v>47492.01</v>
       </c>
       <c r="J78" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K78">
         <v>3</v>
@@ -7468,8 +8836,23 @@
       <c r="W78">
         <v>0.5</v>
       </c>
+      <c r="X78">
+        <v>-4.22</v>
+      </c>
+      <c r="Y78">
+        <v>48.32</v>
+      </c>
+      <c r="Z78">
+        <v>-0.12</v>
+      </c>
       <c r="AC78" t="s">
-        <v>200</v>
+        <v>201</v>
+      </c>
+      <c r="AD78">
+        <v>0</v>
+      </c>
+      <c r="AE78">
+        <v>0</v>
       </c>
       <c r="AF78">
         <v>0</v>
@@ -7477,22 +8860,25 @@
       <c r="AG78">
         <v>-0.1660230755805969</v>
       </c>
-      <c r="AH78" t="s">
-        <v>201</v>
+      <c r="AH78">
+        <v>0</v>
+      </c>
+      <c r="AI78">
+        <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:34">
+    <row r="79" spans="1:35">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C79">
         <v>301323</v>
       </c>
       <c r="D79" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E79">
         <v>1.14</v>
@@ -7510,7 +8896,7 @@
         <v>46304.03</v>
       </c>
       <c r="J79" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K79">
         <v>2</v>
@@ -7551,8 +8937,23 @@
       <c r="W79">
         <v>-0.2</v>
       </c>
+      <c r="X79">
+        <v>-1.82</v>
+      </c>
+      <c r="Y79">
+        <v>58.45</v>
+      </c>
+      <c r="Z79">
+        <v>1.42</v>
+      </c>
       <c r="AC79" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD79">
+        <v>0</v>
+      </c>
+      <c r="AE79">
+        <v>0</v>
       </c>
       <c r="AF79">
         <v>0</v>
@@ -7560,22 +8961,25 @@
       <c r="AG79">
         <v>-0.6952491998672485</v>
       </c>
-      <c r="AH79" t="s">
-        <v>201</v>
+      <c r="AH79">
+        <v>0</v>
+      </c>
+      <c r="AI79">
+        <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:34">
+    <row r="80" spans="1:35">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C80">
         <v>301326</v>
       </c>
       <c r="D80" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E80">
         <v>-1.61</v>
@@ -7593,7 +8997,7 @@
         <v>33425.64</v>
       </c>
       <c r="J80" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K80">
         <v>4</v>
@@ -7634,8 +9038,23 @@
       <c r="W80">
         <v>-1.04</v>
       </c>
+      <c r="X80">
+        <v>-3.17</v>
+      </c>
+      <c r="Y80">
+        <v>95.73999999999999</v>
+      </c>
+      <c r="Z80">
+        <v>0.57</v>
+      </c>
       <c r="AC80" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD80">
+        <v>0</v>
+      </c>
+      <c r="AE80">
+        <v>0</v>
       </c>
       <c r="AF80">
         <v>0</v>
@@ -7643,22 +9062,25 @@
       <c r="AG80">
         <v>1.969630479812622</v>
       </c>
-      <c r="AH80" t="s">
-        <v>201</v>
+      <c r="AH80">
+        <v>0</v>
+      </c>
+      <c r="AI80">
+        <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:34">
+    <row r="81" spans="1:35">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C81">
         <v>301345</v>
       </c>
       <c r="D81" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E81">
         <v>1.34</v>
@@ -7676,7 +9098,7 @@
         <v>43258.69</v>
       </c>
       <c r="J81" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K81">
         <v>15</v>
@@ -7717,8 +9139,23 @@
       <c r="W81">
         <v>0.05</v>
       </c>
+      <c r="X81">
+        <v>-2.82</v>
+      </c>
+      <c r="Y81">
+        <v>173.96</v>
+      </c>
+      <c r="Z81">
+        <v>0.03</v>
+      </c>
       <c r="AC81" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD81">
+        <v>0</v>
+      </c>
+      <c r="AE81">
+        <v>0</v>
       </c>
       <c r="AF81">
         <v>0</v>
@@ -7726,22 +9163,25 @@
       <c r="AG81">
         <v>1.893413305282593</v>
       </c>
-      <c r="AH81" t="s">
-        <v>201</v>
+      <c r="AH81">
+        <v>0</v>
+      </c>
+      <c r="AI81">
+        <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:34">
+    <row r="82" spans="1:35">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C82">
         <v>301357</v>
       </c>
       <c r="D82" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E82">
         <v>4.19</v>
@@ -7759,7 +9199,7 @@
         <v>188089.83</v>
       </c>
       <c r="J82" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K82">
         <v>12</v>
@@ -7800,8 +9240,23 @@
       <c r="W82">
         <v>-1.52</v>
       </c>
+      <c r="X82">
+        <v>-8.65</v>
+      </c>
+      <c r="Y82">
+        <v>162.77</v>
+      </c>
+      <c r="Z82">
+        <v>1.08</v>
+      </c>
       <c r="AC82" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD82">
+        <v>0</v>
+      </c>
+      <c r="AE82">
+        <v>0</v>
       </c>
       <c r="AF82">
         <v>0</v>
@@ -7809,22 +9264,25 @@
       <c r="AG82">
         <v>14.06296730041504</v>
       </c>
-      <c r="AH82" t="s">
-        <v>201</v>
+      <c r="AH82">
+        <v>0</v>
+      </c>
+      <c r="AI82">
+        <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:34">
+    <row r="83" spans="1:35">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C83">
         <v>301377</v>
       </c>
       <c r="D83" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E83">
         <v>7.09</v>
@@ -7842,7 +9300,7 @@
         <v>57470.92</v>
       </c>
       <c r="J83" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K83">
         <v>3</v>
@@ -7883,8 +9341,23 @@
       <c r="W83">
         <v>-0.5</v>
       </c>
+      <c r="X83">
+        <v>-1.19</v>
+      </c>
+      <c r="Y83">
+        <v>60.72</v>
+      </c>
+      <c r="Z83">
+        <v>1.78</v>
+      </c>
       <c r="AC83" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD83">
+        <v>0</v>
+      </c>
+      <c r="AE83">
+        <v>0</v>
       </c>
       <c r="AF83">
         <v>1</v>
@@ -7892,22 +9365,25 @@
       <c r="AG83">
         <v>3.458510637283325</v>
       </c>
-      <c r="AH83" t="s">
-        <v>201</v>
+      <c r="AH83">
+        <v>0</v>
+      </c>
+      <c r="AI83">
+        <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:34">
+    <row r="84" spans="1:35">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C84">
         <v>301389</v>
       </c>
       <c r="D84" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E84">
         <v>10.82</v>
@@ -7925,7 +9401,7 @@
         <v>139797.96</v>
       </c>
       <c r="J84" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K84">
         <v>27</v>
@@ -7966,8 +9442,23 @@
       <c r="W84">
         <v>3.66</v>
       </c>
+      <c r="X84">
+        <v>-10.6</v>
+      </c>
+      <c r="Y84">
+        <v>54.28</v>
+      </c>
+      <c r="Z84">
+        <v>-1.17</v>
+      </c>
       <c r="AC84" t="s">
-        <v>200</v>
+        <v>201</v>
+      </c>
+      <c r="AD84">
+        <v>0</v>
+      </c>
+      <c r="AE84">
+        <v>0</v>
       </c>
       <c r="AF84">
         <v>0</v>
@@ -7975,22 +9466,25 @@
       <c r="AG84">
         <v>4.592609405517578</v>
       </c>
-      <c r="AH84" t="s">
-        <v>201</v>
+      <c r="AH84">
+        <v>0</v>
+      </c>
+      <c r="AI84">
+        <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:34">
+    <row r="85" spans="1:35">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C85">
         <v>301397</v>
       </c>
       <c r="D85" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E85">
         <v>8.84</v>
@@ -8008,7 +9502,7 @@
         <v>80303.24000000001</v>
       </c>
       <c r="J85" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K85">
         <v>5</v>
@@ -8049,8 +9543,23 @@
       <c r="W85">
         <v>0.35</v>
       </c>
+      <c r="X85">
+        <v>-4.33</v>
+      </c>
+      <c r="Y85">
+        <v>42.24</v>
+      </c>
+      <c r="Z85">
+        <v>0.57</v>
+      </c>
       <c r="AC85" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD85">
+        <v>0</v>
+      </c>
+      <c r="AE85">
+        <v>0</v>
       </c>
       <c r="AF85">
         <v>0</v>
@@ -8058,22 +9567,25 @@
       <c r="AG85">
         <v>-2.885564804077148</v>
       </c>
-      <c r="AH85" t="s">
-        <v>201</v>
+      <c r="AH85">
+        <v>0</v>
+      </c>
+      <c r="AI85">
+        <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:34">
+    <row r="86" spans="1:35">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C86">
         <v>301399</v>
       </c>
       <c r="D86" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E86">
         <v>-2.57</v>
@@ -8091,7 +9603,7 @@
         <v>28149.34</v>
       </c>
       <c r="J86" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K86">
         <v>4</v>
@@ -8132,8 +9644,23 @@
       <c r="W86">
         <v>-1.01</v>
       </c>
+      <c r="X86">
+        <v>-7.88</v>
+      </c>
+      <c r="Y86">
+        <v>23.68</v>
+      </c>
+      <c r="Z86">
+        <v>-0.75</v>
+      </c>
       <c r="AC86" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD86">
+        <v>0</v>
+      </c>
+      <c r="AE86">
+        <v>0</v>
       </c>
       <c r="AF86">
         <v>0</v>
@@ -8141,22 +9668,25 @@
       <c r="AG86">
         <v>2.254982709884644</v>
       </c>
-      <c r="AH86" t="s">
-        <v>201</v>
+      <c r="AH86">
+        <v>0</v>
+      </c>
+      <c r="AI86">
+        <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:34">
+    <row r="87" spans="1:35">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C87">
         <v>301486</v>
       </c>
       <c r="D87" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E87">
         <v>2.81</v>
@@ -8174,7 +9704,7 @@
         <v>173177.04</v>
       </c>
       <c r="J87" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K87">
         <v>1</v>
@@ -8215,8 +9745,23 @@
       <c r="W87">
         <v>-2.23</v>
       </c>
+      <c r="X87">
+        <v>-7.35</v>
+      </c>
+      <c r="Y87">
+        <v>93</v>
+      </c>
+      <c r="Z87">
+        <v>-1.64</v>
+      </c>
       <c r="AC87" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD87">
+        <v>0</v>
+      </c>
+      <c r="AE87">
+        <v>0</v>
       </c>
       <c r="AF87">
         <v>1</v>
@@ -8224,22 +9769,25 @@
       <c r="AG87">
         <v>75.82433319091797</v>
       </c>
-      <c r="AH87" t="s">
-        <v>201</v>
+      <c r="AH87">
+        <v>0</v>
+      </c>
+      <c r="AI87">
+        <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:34">
+    <row r="88" spans="1:35">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C88">
         <v>301489</v>
       </c>
       <c r="D88" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E88">
         <v>5.83</v>
@@ -8257,7 +9805,7 @@
         <v>114584.32</v>
       </c>
       <c r="J88" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K88">
         <v>10</v>
@@ -8298,8 +9846,23 @@
       <c r="W88">
         <v>-0.06</v>
       </c>
+      <c r="X88">
+        <v>-2.38</v>
+      </c>
+      <c r="Y88">
+        <v>158</v>
+      </c>
+      <c r="Z88">
+        <v>0.2</v>
+      </c>
       <c r="AC88" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD88">
+        <v>0</v>
+      </c>
+      <c r="AE88">
+        <v>0</v>
       </c>
       <c r="AF88">
         <v>0</v>
@@ -8307,22 +9870,25 @@
       <c r="AG88">
         <v>3.816556453704834</v>
       </c>
-      <c r="AH88" t="s">
-        <v>201</v>
+      <c r="AH88">
+        <v>0</v>
+      </c>
+      <c r="AI88">
+        <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:34">
+    <row r="89" spans="1:35">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C89">
         <v>301502</v>
       </c>
       <c r="D89" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E89">
         <v>1.18</v>
@@ -8340,7 +9906,7 @@
         <v>28799.16</v>
       </c>
       <c r="J89" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K89">
         <v>1</v>
@@ -8381,8 +9947,23 @@
       <c r="W89">
         <v>0.53</v>
       </c>
+      <c r="X89">
+        <v>0.34</v>
+      </c>
+      <c r="Y89">
+        <v>60.8</v>
+      </c>
+      <c r="Z89">
+        <v>2.62</v>
+      </c>
       <c r="AC89" t="s">
-        <v>200</v>
+        <v>201</v>
+      </c>
+      <c r="AD89">
+        <v>0</v>
+      </c>
+      <c r="AE89">
+        <v>0</v>
       </c>
       <c r="AF89">
         <v>0</v>
@@ -8390,22 +9971,25 @@
       <c r="AG89">
         <v>-10.6193962097168</v>
       </c>
-      <c r="AH89" t="s">
-        <v>201</v>
+      <c r="AH89">
+        <v>0</v>
+      </c>
+      <c r="AI89">
+        <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:34">
+    <row r="90" spans="1:35">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C90">
         <v>301511</v>
       </c>
       <c r="D90" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E90">
         <v>17.3</v>
@@ -8423,7 +10007,7 @@
         <v>317526.58</v>
       </c>
       <c r="J90" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K90">
         <v>37</v>
@@ -8464,8 +10048,23 @@
       <c r="W90">
         <v>-0.57</v>
       </c>
+      <c r="X90">
+        <v>-11.27</v>
+      </c>
+      <c r="Y90">
+        <v>40.97</v>
+      </c>
+      <c r="Z90">
+        <v>-2.55</v>
+      </c>
       <c r="AC90" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD90">
+        <v>0</v>
+      </c>
+      <c r="AE90">
+        <v>0</v>
       </c>
       <c r="AF90">
         <v>0</v>
@@ -8473,22 +10072,25 @@
       <c r="AG90">
         <v>-0.3151358664035797</v>
       </c>
-      <c r="AH90" t="s">
-        <v>201</v>
+      <c r="AH90">
+        <v>0</v>
+      </c>
+      <c r="AI90">
+        <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:34">
+    <row r="91" spans="1:35">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C91">
         <v>301529</v>
       </c>
       <c r="D91" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E91">
         <v>-1.37</v>
@@ -8506,7 +10108,7 @@
         <v>26835.96</v>
       </c>
       <c r="J91" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K91">
         <v>18</v>
@@ -8547,8 +10149,23 @@
       <c r="W91">
         <v>-0.26</v>
       </c>
+      <c r="X91">
+        <v>-1.02</v>
+      </c>
+      <c r="Y91">
+        <v>72.47</v>
+      </c>
+      <c r="Z91">
+        <v>0.93</v>
+      </c>
       <c r="AC91" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD91">
+        <v>0</v>
+      </c>
+      <c r="AE91">
+        <v>0</v>
       </c>
       <c r="AF91">
         <v>0</v>
@@ -8556,22 +10173,25 @@
       <c r="AG91">
         <v>2.646039247512817</v>
       </c>
-      <c r="AH91" t="s">
-        <v>201</v>
+      <c r="AH91">
+        <v>0</v>
+      </c>
+      <c r="AI91">
+        <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:34">
+    <row r="92" spans="1:35">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C92">
         <v>688108</v>
       </c>
       <c r="D92" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E92">
         <v>17.48</v>
@@ -8589,7 +10209,7 @@
         <v>347385.09</v>
       </c>
       <c r="J92" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K92">
         <v>3</v>
@@ -8630,8 +10250,23 @@
       <c r="W92">
         <v>0.79</v>
       </c>
+      <c r="X92">
+        <v>3.05</v>
+      </c>
+      <c r="Y92">
+        <v>30.94</v>
+      </c>
+      <c r="Z92">
+        <v>4.88</v>
+      </c>
       <c r="AC92" t="s">
-        <v>200</v>
+        <v>201</v>
+      </c>
+      <c r="AD92">
+        <v>0</v>
+      </c>
+      <c r="AE92">
+        <v>0</v>
       </c>
       <c r="AF92">
         <v>1</v>
@@ -8639,22 +10274,25 @@
       <c r="AG92">
         <v>18.75775527954102</v>
       </c>
-      <c r="AH92" t="s">
-        <v>202</v>
+      <c r="AH92">
+        <v>1</v>
+      </c>
+      <c r="AI92">
+        <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:34">
+    <row r="93" spans="1:35">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C93">
         <v>688110</v>
       </c>
       <c r="D93" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E93">
         <v>2.75</v>
@@ -8672,7 +10310,7 @@
         <v>365035.6</v>
       </c>
       <c r="J93" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K93">
         <v>12</v>
@@ -8713,8 +10351,23 @@
       <c r="W93">
         <v>-0.65</v>
       </c>
+      <c r="X93">
+        <v>4.58</v>
+      </c>
+      <c r="Y93">
+        <v>95.98</v>
+      </c>
+      <c r="Z93">
+        <v>7.64</v>
+      </c>
       <c r="AC93" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD93">
+        <v>0</v>
+      </c>
+      <c r="AE93">
+        <v>1</v>
       </c>
       <c r="AF93">
         <v>0</v>
@@ -8722,22 +10375,25 @@
       <c r="AG93">
         <v>-22.56972885131836</v>
       </c>
-      <c r="AH93" t="s">
-        <v>201</v>
+      <c r="AH93">
+        <v>0</v>
+      </c>
+      <c r="AI93">
+        <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:34">
+    <row r="94" spans="1:35">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C94">
         <v>688146</v>
       </c>
       <c r="D94" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E94">
         <v>20.01</v>
@@ -8755,7 +10411,7 @@
         <v>137566.92</v>
       </c>
       <c r="J94" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K94">
         <v>1</v>
@@ -8796,8 +10452,23 @@
       <c r="W94">
         <v>2.49</v>
       </c>
+      <c r="X94">
+        <v>-9.43</v>
+      </c>
+      <c r="Y94">
+        <v>46.62</v>
+      </c>
+      <c r="Z94">
+        <v>3.92</v>
+      </c>
       <c r="AC94" t="s">
-        <v>200</v>
+        <v>201</v>
+      </c>
+      <c r="AD94">
+        <v>0</v>
+      </c>
+      <c r="AE94">
+        <v>0</v>
       </c>
       <c r="AF94">
         <v>1</v>
@@ -8805,22 +10476,25 @@
       <c r="AG94">
         <v>14.76656055450439</v>
       </c>
-      <c r="AH94" t="s">
-        <v>202</v>
+      <c r="AH94">
+        <v>1</v>
+      </c>
+      <c r="AI94">
+        <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:34">
+    <row r="95" spans="1:35">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C95">
         <v>688199</v>
       </c>
       <c r="D95" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E95">
         <v>-1.91</v>
@@ -8838,7 +10512,7 @@
         <v>39673.49</v>
       </c>
       <c r="J95" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K95">
         <v>1</v>
@@ -8879,8 +10553,23 @@
       <c r="W95">
         <v>-0.44</v>
       </c>
+      <c r="X95">
+        <v>-4.67</v>
+      </c>
+      <c r="Y95">
+        <v>27.08</v>
+      </c>
+      <c r="Z95">
+        <v>1.16</v>
+      </c>
       <c r="AC95" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD95">
+        <v>0</v>
+      </c>
+      <c r="AE95">
+        <v>0</v>
       </c>
       <c r="AF95">
         <v>0</v>
@@ -8888,22 +10577,25 @@
       <c r="AG95">
         <v>58.04541015625</v>
       </c>
-      <c r="AH95" t="s">
-        <v>201</v>
+      <c r="AH95">
+        <v>0</v>
+      </c>
+      <c r="AI95">
+        <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:34">
+    <row r="96" spans="1:35">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C96">
         <v>688270</v>
       </c>
       <c r="D96" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E96">
         <v>15.63</v>
@@ -8921,7 +10613,7 @@
         <v>176393.02</v>
       </c>
       <c r="J96" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K96">
         <v>1</v>
@@ -8962,8 +10654,23 @@
       <c r="W96">
         <v>-0.43</v>
       </c>
+      <c r="X96">
+        <v>-4.39</v>
+      </c>
+      <c r="Y96">
+        <v>68.3</v>
+      </c>
+      <c r="Z96">
+        <v>-0.31</v>
+      </c>
       <c r="AC96" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD96">
+        <v>0</v>
+      </c>
+      <c r="AE96">
+        <v>0</v>
       </c>
       <c r="AF96">
         <v>0</v>
@@ -8971,22 +10678,25 @@
       <c r="AG96">
         <v>8.816549301147461</v>
       </c>
-      <c r="AH96" t="s">
-        <v>201</v>
+      <c r="AH96">
+        <v>0</v>
+      </c>
+      <c r="AI96">
+        <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:34">
+    <row r="97" spans="1:35">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C97">
         <v>688273</v>
       </c>
       <c r="D97" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E97">
         <v>-3.27</v>
@@ -9004,7 +10714,7 @@
         <v>62293.37</v>
       </c>
       <c r="J97" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K97">
         <v>2</v>
@@ -9045,8 +10755,23 @@
       <c r="W97">
         <v>-1.46</v>
       </c>
+      <c r="X97">
+        <v>1.06</v>
+      </c>
+      <c r="Y97">
+        <v>53.69</v>
+      </c>
+      <c r="Z97">
+        <v>5.07</v>
+      </c>
       <c r="AC97" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD97">
+        <v>0</v>
+      </c>
+      <c r="AE97">
+        <v>0</v>
       </c>
       <c r="AF97">
         <v>0</v>
@@ -9054,22 +10779,25 @@
       <c r="AG97">
         <v>1.544844746589661</v>
       </c>
-      <c r="AH97" t="s">
-        <v>201</v>
+      <c r="AH97">
+        <v>0</v>
+      </c>
+      <c r="AI97">
+        <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:34">
+    <row r="98" spans="1:35">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C98">
         <v>688313</v>
       </c>
       <c r="D98" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E98">
         <v>4.16</v>
@@ -9087,7 +10815,7 @@
         <v>269073.61</v>
       </c>
       <c r="J98" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K98">
         <v>2</v>
@@ -9128,8 +10856,23 @@
       <c r="W98">
         <v>-0.13</v>
       </c>
+      <c r="X98">
+        <v>-8.300000000000001</v>
+      </c>
+      <c r="Y98">
+        <v>60.65</v>
+      </c>
+      <c r="Z98">
+        <v>-1.45</v>
+      </c>
       <c r="AC98" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD98">
+        <v>0</v>
+      </c>
+      <c r="AE98">
+        <v>0</v>
       </c>
       <c r="AF98">
         <v>0</v>
@@ -9137,22 +10880,25 @@
       <c r="AG98">
         <v>-12.14613056182861</v>
       </c>
-      <c r="AH98" t="s">
-        <v>201</v>
+      <c r="AH98">
+        <v>0</v>
+      </c>
+      <c r="AI98">
+        <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:34">
+    <row r="99" spans="1:35">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C99">
         <v>688379</v>
       </c>
       <c r="D99" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E99">
         <v>3.05</v>
@@ -9170,7 +10916,7 @@
         <v>31709.64</v>
       </c>
       <c r="J99" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K99">
         <v>4</v>
@@ -9211,8 +10957,23 @@
       <c r="W99">
         <v>0.02</v>
       </c>
+      <c r="X99">
+        <v>0.27</v>
+      </c>
+      <c r="Y99">
+        <v>55.55</v>
+      </c>
+      <c r="Z99">
+        <v>8.029999999999999</v>
+      </c>
       <c r="AC99" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD99">
+        <v>0</v>
+      </c>
+      <c r="AE99">
+        <v>1</v>
       </c>
       <c r="AF99">
         <v>0</v>
@@ -9220,22 +10981,25 @@
       <c r="AG99">
         <v>0.7584937810897827</v>
       </c>
-      <c r="AH99" t="s">
-        <v>201</v>
+      <c r="AH99">
+        <v>0</v>
+      </c>
+      <c r="AI99">
+        <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:34">
+    <row r="100" spans="1:35">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C100">
         <v>688448</v>
       </c>
       <c r="D100" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E100">
         <v>9</v>
@@ -9253,7 +11017,7 @@
         <v>42903.63</v>
       </c>
       <c r="J100" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K100">
         <v>1</v>
@@ -9294,8 +11058,23 @@
       <c r="W100">
         <v>0.01</v>
       </c>
+      <c r="X100">
+        <v>-1.89</v>
+      </c>
+      <c r="Y100">
+        <v>52.5</v>
+      </c>
+      <c r="Z100">
+        <v>10.29</v>
+      </c>
       <c r="AC100" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD100">
+        <v>0</v>
+      </c>
+      <c r="AE100">
+        <v>1</v>
       </c>
       <c r="AF100">
         <v>0</v>
@@ -9303,22 +11082,25 @@
       <c r="AG100">
         <v>6.633016586303711</v>
       </c>
-      <c r="AH100" t="s">
-        <v>201</v>
+      <c r="AH100">
+        <v>0</v>
+      </c>
+      <c r="AI100">
+        <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:34">
+    <row r="101" spans="1:35">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C101">
         <v>688498</v>
       </c>
       <c r="D101" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E101">
         <v>4.03</v>
@@ -9336,7 +11118,7 @@
         <v>115901.7</v>
       </c>
       <c r="J101" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K101">
         <v>2</v>
@@ -9377,8 +11159,23 @@
       <c r="W101">
         <v>-0.27</v>
       </c>
+      <c r="X101">
+        <v>-5.88</v>
+      </c>
+      <c r="Y101">
+        <v>279.29</v>
+      </c>
+      <c r="Z101">
+        <v>-0.57</v>
+      </c>
       <c r="AC101" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD101">
+        <v>0</v>
+      </c>
+      <c r="AE101">
+        <v>0</v>
       </c>
       <c r="AF101">
         <v>1</v>
@@ -9386,22 +11183,25 @@
       <c r="AG101">
         <v>6.388053894042969</v>
       </c>
-      <c r="AH101" t="s">
-        <v>201</v>
+      <c r="AH101">
+        <v>0</v>
+      </c>
+      <c r="AI101">
+        <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:34">
+    <row r="102" spans="1:35">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C102">
         <v>688499</v>
       </c>
       <c r="D102" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E102">
         <v>0.68</v>
@@ -9419,7 +11219,7 @@
         <v>67628.59</v>
       </c>
       <c r="J102" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K102">
         <v>42</v>
@@ -9460,8 +11260,23 @@
       <c r="W102">
         <v>-0.15</v>
       </c>
+      <c r="X102">
+        <v>-2.69</v>
+      </c>
+      <c r="Y102">
+        <v>62.6</v>
+      </c>
+      <c r="Z102">
+        <v>5.39</v>
+      </c>
       <c r="AC102" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD102">
+        <v>0</v>
+      </c>
+      <c r="AE102">
+        <v>0</v>
       </c>
       <c r="AF102">
         <v>0</v>
@@ -9469,22 +11284,25 @@
       <c r="AG102">
         <v>-5.252145290374756</v>
       </c>
-      <c r="AH102" t="s">
-        <v>201</v>
+      <c r="AH102">
+        <v>0</v>
+      </c>
+      <c r="AI102">
+        <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:34">
+    <row r="103" spans="1:35">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C103">
         <v>688551</v>
       </c>
       <c r="D103" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E103">
         <v>0.16</v>
@@ -9502,7 +11320,7 @@
         <v>39551.8</v>
       </c>
       <c r="J103" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K103">
         <v>3</v>
@@ -9543,8 +11361,23 @@
       <c r="W103">
         <v>1.19</v>
       </c>
+      <c r="X103">
+        <v>-7.68</v>
+      </c>
+      <c r="Y103">
+        <v>45.66</v>
+      </c>
+      <c r="Z103">
+        <v>1.99</v>
+      </c>
       <c r="AC103" t="s">
-        <v>200</v>
+        <v>201</v>
+      </c>
+      <c r="AD103">
+        <v>0</v>
+      </c>
+      <c r="AE103">
+        <v>0</v>
       </c>
       <c r="AF103">
         <v>0</v>
@@ -9552,22 +11385,25 @@
       <c r="AG103">
         <v>-1.956883788108826</v>
       </c>
-      <c r="AH103" t="s">
-        <v>201</v>
+      <c r="AH103">
+        <v>0</v>
+      </c>
+      <c r="AI103">
+        <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:34">
+    <row r="104" spans="1:35">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C104">
         <v>688603</v>
       </c>
       <c r="D104" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E104">
         <v>-0.89</v>
@@ -9585,7 +11421,7 @@
         <v>34401.71</v>
       </c>
       <c r="J104" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K104">
         <v>1</v>
@@ -9626,8 +11462,23 @@
       <c r="W104">
         <v>-0.16</v>
       </c>
+      <c r="X104">
+        <v>8.58</v>
+      </c>
+      <c r="Y104">
+        <v>78.09999999999999</v>
+      </c>
+      <c r="Z104">
+        <v>11.14</v>
+      </c>
       <c r="AC104" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD104">
+        <v>0</v>
+      </c>
+      <c r="AE104">
+        <v>1</v>
       </c>
       <c r="AF104">
         <v>0</v>
@@ -9635,22 +11486,25 @@
       <c r="AG104">
         <v>-5.871477127075195</v>
       </c>
-      <c r="AH104" t="s">
-        <v>201</v>
+      <c r="AH104">
+        <v>0</v>
+      </c>
+      <c r="AI104">
+        <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:34">
+    <row r="105" spans="1:35">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C105">
         <v>688621</v>
       </c>
       <c r="D105" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E105">
         <v>6.43</v>
@@ -9668,7 +11522,7 @@
         <v>45537.6</v>
       </c>
       <c r="J105" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K105">
         <v>8</v>
@@ -9709,8 +11563,23 @@
       <c r="W105">
         <v>0.53</v>
       </c>
+      <c r="X105">
+        <v>-2.85</v>
+      </c>
+      <c r="Y105">
+        <v>74.65000000000001</v>
+      </c>
+      <c r="Z105">
+        <v>4.63</v>
+      </c>
       <c r="AC105" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD105">
+        <v>0</v>
+      </c>
+      <c r="AE105">
+        <v>0</v>
       </c>
       <c r="AF105">
         <v>0</v>
@@ -9718,22 +11587,25 @@
       <c r="AG105">
         <v>5.564682006835938</v>
       </c>
-      <c r="AH105" t="s">
-        <v>201</v>
+      <c r="AH105">
+        <v>0</v>
+      </c>
+      <c r="AI105">
+        <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:34">
+    <row r="106" spans="1:35">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C106">
         <v>688626</v>
       </c>
       <c r="D106" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E106">
         <v>2.81</v>
@@ -9751,7 +11623,7 @@
         <v>61258.87</v>
       </c>
       <c r="J106" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K106">
         <v>5</v>
@@ -9792,8 +11664,23 @@
       <c r="W106">
         <v>-0.38</v>
       </c>
+      <c r="X106">
+        <v>-2.27</v>
+      </c>
+      <c r="Y106">
+        <v>68.98</v>
+      </c>
+      <c r="Z106">
+        <v>4.18</v>
+      </c>
       <c r="AC106" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD106">
+        <v>0</v>
+      </c>
+      <c r="AE106">
+        <v>0</v>
       </c>
       <c r="AF106">
         <v>0</v>
@@ -9801,22 +11688,25 @@
       <c r="AG106">
         <v>2.747626304626465</v>
       </c>
-      <c r="AH106" t="s">
-        <v>201</v>
+      <c r="AH106">
+        <v>0</v>
+      </c>
+      <c r="AI106">
+        <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:34">
+    <row r="107" spans="1:35">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C107">
         <v>688630</v>
       </c>
       <c r="D107" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E107">
         <v>4.35</v>
@@ -9834,7 +11724,7 @@
         <v>88404.14</v>
       </c>
       <c r="J107" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K107">
         <v>15</v>
@@ -9875,8 +11765,23 @@
       <c r="W107">
         <v>-0.02</v>
       </c>
+      <c r="X107">
+        <v>-8.82</v>
+      </c>
+      <c r="Y107">
+        <v>146</v>
+      </c>
+      <c r="Z107">
+        <v>1.39</v>
+      </c>
       <c r="AC107" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD107">
+        <v>0</v>
+      </c>
+      <c r="AE107">
+        <v>0</v>
       </c>
       <c r="AF107">
         <v>0</v>
@@ -9884,22 +11789,25 @@
       <c r="AG107">
         <v>3.453803300857544</v>
       </c>
-      <c r="AH107" t="s">
-        <v>201</v>
+      <c r="AH107">
+        <v>0</v>
+      </c>
+      <c r="AI107">
+        <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:34">
+    <row r="108" spans="1:35">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C108">
         <v>688660</v>
       </c>
       <c r="D108" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E108">
         <v>1.31</v>
@@ -9917,7 +11825,7 @@
         <v>112889.78</v>
       </c>
       <c r="J108" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K108">
         <v>16</v>
@@ -9958,8 +11866,23 @@
       <c r="W108">
         <v>-0.13</v>
       </c>
+      <c r="X108">
+        <v>-3.63</v>
+      </c>
+      <c r="Y108">
+        <v>20.94</v>
+      </c>
+      <c r="Z108">
+        <v>8.5</v>
+      </c>
       <c r="AC108" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD108">
+        <v>0</v>
+      </c>
+      <c r="AE108">
+        <v>1</v>
       </c>
       <c r="AF108">
         <v>0</v>
@@ -9967,22 +11890,25 @@
       <c r="AG108">
         <v>3.907097339630127</v>
       </c>
-      <c r="AH108" t="s">
-        <v>201</v>
+      <c r="AH108">
+        <v>0</v>
+      </c>
+      <c r="AI108">
+        <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:34">
+    <row r="109" spans="1:35">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C109">
         <v>688788</v>
       </c>
       <c r="D109" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E109">
         <v>9.789999999999999</v>
@@ -10000,7 +11926,7 @@
         <v>89929.21000000001</v>
       </c>
       <c r="J109" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K109">
         <v>7</v>
@@ -10041,8 +11967,23 @@
       <c r="W109">
         <v>0.05</v>
       </c>
+      <c r="X109">
+        <v>-3.11</v>
+      </c>
+      <c r="Y109">
+        <v>79.87</v>
+      </c>
+      <c r="Z109">
+        <v>-0.92</v>
+      </c>
       <c r="AC109" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD109">
+        <v>0</v>
+      </c>
+      <c r="AE109">
+        <v>0</v>
       </c>
       <c r="AF109">
         <v>0</v>
@@ -10050,22 +11991,25 @@
       <c r="AG109">
         <v>2.085148811340332</v>
       </c>
-      <c r="AH109" t="s">
-        <v>201</v>
+      <c r="AH109">
+        <v>0</v>
+      </c>
+      <c r="AI109">
+        <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:34">
+    <row r="110" spans="1:35">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C110">
         <v>688800</v>
       </c>
       <c r="D110" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E110">
         <v>4.66</v>
@@ -10083,7 +12027,7 @@
         <v>158946.69</v>
       </c>
       <c r="J110" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K110">
         <v>7</v>
@@ -10124,8 +12068,23 @@
       <c r="W110">
         <v>0.92</v>
       </c>
+      <c r="X110">
+        <v>-1.1</v>
+      </c>
+      <c r="Y110">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="Z110">
+        <v>7.7</v>
+      </c>
       <c r="AC110" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="AD110">
+        <v>0</v>
+      </c>
+      <c r="AE110">
+        <v>1</v>
       </c>
       <c r="AF110">
         <v>0</v>
@@ -10133,8 +12092,11 @@
       <c r="AG110">
         <v>2.540963172912598</v>
       </c>
-      <c r="AH110" t="s">
-        <v>201</v>
+      <c r="AH110">
+        <v>0</v>
+      </c>
+      <c r="AI110">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
